--- a/profs/xlsx/Расписание Костюков Вячеслав Михайлович.xlsx
+++ b/profs/xlsx/Расписание Костюков Вячеслав Михайлович.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t xml:space="preserve">Расписание на осенний семестр 2018/19 года обучения
 для преподавателя Костюков В.М.</t>
@@ -88,13 +88,22 @@
     <t xml:space="preserve">Среда</t>
   </si>
   <si>
+    <t xml:space="preserve">ауд.каф.(-), Системы автоматического управления космическими летательными аппаратами, ЛР, 3О-503С-14 (05.09-14.11) </t>
+  </si>
+  <si>
     <t xml:space="preserve">Четверг</t>
   </si>
   <si>
     <t xml:space="preserve">ауд.316(3), Моделирование, идентификация и оптимизация, ЛК, 3О-405С-15 (06.09-27.12) </t>
   </si>
   <si>
-    <t xml:space="preserve">ауд.310(3), Моделирование, идентификация и оптимизация, ЛК, 3О-405С-15 (22.11-20.12) </t>
+    <t xml:space="preserve">ауд.316(3), Системы автоматического управления космическими летательными аппаратами, ЛК, 3О-503С-14, 3О-505С-14 (06.09-27.12) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд.316(3), Системы автоматического управления космическими летательными аппаратами, ЛК, 3О-503С-14, 3О-505С-14 (13.09-20.12) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд.310(3), Моделирование, идентификация и оптимизация, ЛК, 3О-405С-15 (15.11-13.12) </t>
   </si>
   <si>
     <t xml:space="preserve">Пятница</t>
@@ -441,8 +450,12 @@
     </row>
     <row r="10" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -451,16 +464,18 @@
     </row>
     <row r="11" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -469,15 +484,17 @@
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -499,15 +516,15 @@
     </row>
     <row r="15" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -525,7 +542,7 @@
     </row>
     <row r="17" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -552,13 +569,13 @@
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="46">
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -570,8 +587,6 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
@@ -580,7 +595,7 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>

--- a/profs/xlsx/Расписание Костюков Вячеслав Михайлович.xlsx
+++ b/profs/xlsx/Расписание Костюков Вячеслав Михайлович.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="0" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t xml:space="preserve">Расписание на осенний семестр 2018/19 года обучения
 для преподавателя Костюков В.М.</t>
@@ -88,7 +88,10 @@
     <t xml:space="preserve">Среда</t>
   </si>
   <si>
-    <t xml:space="preserve">ауд.каф.(-), Системы автоматического управления космическими летательными аппаратами, ЛР, 3О-503С-14 (05.09-14.11) </t>
+    <t xml:space="preserve">ауд.314(3), Системы автоматического управления космическими летательными аппаратами, ЛР, 3О-505С-14 (10.10-19.12) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд.314(3), Системы автоматического управления космическими летательными аппаратами, ЛР, 3О-503С-14 (05.09-14.11) </t>
   </si>
   <si>
     <t xml:space="preserve">Четверг</t>
@@ -327,8 +330,8 @@
   </sheetPr>
   <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -442,8 +445,12 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -451,10 +458,10 @@
     <row r="10" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -464,17 +471,17 @@
     </row>
     <row r="11" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -486,7 +493,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -494,7 +501,7 @@
     </row>
     <row r="13" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -516,15 +523,15 @@
     </row>
     <row r="15" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -542,7 +549,7 @@
     </row>
     <row r="17" s="1" customFormat="true" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -569,13 +576,13 @@
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="44">
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -587,8 +594,6 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
